--- a/biology/Zoologie/Hypsiglena/Hypsiglena.xlsx
+++ b/biology/Zoologie/Hypsiglena/Hypsiglena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsiglena est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsiglena est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent au Mexique et dans une large moitié ouest des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent au Mexique et dans une large moitié ouest des États-Unis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces serpents vivent dans des zones arides à semi-désertiques. Ils dépassent rarement 40 cm. Ils peuvent être de nombreuses couleurs, allant du gris au noir en passant par le brun, avec de nombreuses taches sombres.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 août 2015) :
 Hypsiglena affinis Boulenger, 1894
 Hypsiglena catalinae Tanner, 1966
 Hypsiglena chlorophaea Cope, 1860
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1860 : Catalogue of the Colubridae in the Museum of the Academy of Natural Sciences of Philadelphia, with notes and descriptions of new species. Part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 241-266 (texte intégral).</t>
         </is>
